--- a/biology/Zoologie/Conus_textile/Conus_textile.xlsx
+++ b/biology/Zoologie/Conus_textile/Conus_textile.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Toison d'or
 Conus textile, le Cône textile ou la Toison d'or, est une espèce de mollusque de la famille des Conidae. C'est une espèce commune.
-C'est un coquillage venimeux[1]. Son poison extrêmement puissant peut tuer un humain en cinq minutes et il n'existe aucun antidote efficace, ce qui fait de cette espèce l'un des cônes les plus dangereux.
+C'est un coquillage venimeux. Son poison extrêmement puissant peut tuer un humain en cinq minutes et il n'existe aucun antidote efficace, ce qui fait de cette espèce l'un des cônes les plus dangereux.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De l'océan Indien au Pacifique sud jusqu'à la Polynésie, dans le sable à faible profondeur. Il est présent notamment en mer Rouge, à Mayotte, en Australie…
 </t>
@@ -544,9 +558,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (24 mai 2010)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (24 mai 2010) :
 Conus textile archiepiscopus Hwass dans Bruguière, 1792
 Conus textile neovicarius da Motta, 1982</t>
         </is>
@@ -576,10 +592,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses motifs évoquent un triangle de Sierpiński ou les automates cellulaires définis par la « règle 30 ».
-Taille : 9 à 15 cm[3]; ou 4 à 13 cm[4].
+Taille : 9 à 15 cm; ou 4 à 13 cm.
 Comme tous les conidae, il utilise ses radulas pour harponner ses proies et leur injecter un venin mortel.
 </t>
         </is>
